--- a/科學少女版型.xlsx
+++ b/科學少女版型.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20351"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Science_teenage_girl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{848BA4FD-5071-49E3-A57D-F23E66AC133E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2" xr2:uid="{A1AF30FD-8ACE-49D8-A4C9-05CDB488E08C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="全一頁式" sheetId="2" r:id="rId2"/>
-    <sheet name="換頁式" sheetId="3" r:id="rId3"/>
+    <sheet name="小說樣式" sheetId="4" r:id="rId3"/>
+    <sheet name="換頁式" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="90">
   <si>
     <t>社群分享</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,14 +222,162 @@
   </si>
   <si>
     <t>最新活動(跑馬燈)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科學少女原本小說</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科學少女第一集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科學少女第二集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下按鈕1&amp;r2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第幾頁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目錄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2章</t>
+  </si>
+  <si>
+    <t>第3章</t>
+  </si>
+  <si>
+    <t>第4章</t>
+  </si>
+  <si>
+    <t>第5章</t>
+  </si>
+  <si>
+    <t>第6章</t>
+  </si>
+  <si>
+    <t>第7章</t>
+  </si>
+  <si>
+    <t>第8章</t>
+  </si>
+  <si>
+    <t>第9章</t>
+  </si>
+  <si>
+    <t>第10章</t>
+  </si>
+  <si>
+    <t>第11章</t>
+  </si>
+  <si>
+    <t>第12章</t>
+  </si>
+  <si>
+    <t>第13章</t>
+  </si>
+  <si>
+    <t>第14章</t>
+  </si>
+  <si>
+    <t>第15章</t>
+  </si>
+  <si>
+    <t>第16章</t>
+  </si>
+  <si>
+    <t>第17章</t>
+  </si>
+  <si>
+    <t>第18章</t>
+  </si>
+  <si>
+    <t>第19章</t>
+  </si>
+  <si>
+    <t>第20章</t>
+  </si>
+  <si>
+    <t>第21章</t>
+  </si>
+  <si>
+    <t>第22章</t>
+  </si>
+  <si>
+    <t>第23章</t>
+  </si>
+  <si>
+    <t>第24章</t>
+  </si>
+  <si>
+    <t>第25章</t>
+  </si>
+  <si>
+    <t>青青園中葵，朝露待日晞。
+陽春佈德澤，萬物生光輝。
+常恐秋節至，焜黃華葉衰。
+百川東到海，何時復西歸？
+少壯不努力，老大徒傷悲！ 
+作者：佚名
+此詩選自漢樂府。樂府是自秦代以來設立的朝廷音樂機關，漢武帝時得到大規模的擴建，從民間蒐集了大量的詩歌作品，內容豐富，題材廣泛。本詩是其中的一首。 長歌行是指“長聲歌詠”爲曲調的自由式歌行體。
+這首詩選自《樂府詩集》卷三十，屬相和歌辭中的平調曲。《樂府解題》說這首古辭“言芳華不久，當努力爲樂，無至老大乃傷悲也。”把“努力”理解爲“努力爲樂”，顯然是一種曲解。漢代的五言古詩，許多是慨嘆年命短促、鼓吹及時行樂的。這首詩從整體構思看，主要意思是說時節變換得很快，光陰一去不返，因而勸人要珍惜青年時代，發奮努力，使自己有所作爲。其情感基調是積極向上的。
+《樂府詩集》是宋代郭茂倩編的一部樂府詩總集，全書一百卷，分十二類。上起漢魏，下迄五代，兼有秦以前歌謠十餘首。除收入封建朝廷的樂章外，還保存了大量民間入樂的歌詞和文人創造的《新樂府詩》[4]《新樂府詩集》其中包括《木蘭詩》《孔雀東南飛》。（《木蘭詩》《孔雀東南飛》又被稱爲樂府雙壁。）全書各類有總序，每曲有題解，對各種歌辭、曲詞的起源和發展，均有考訂。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下第一章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一種方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二種方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>試閱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劇情簡介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案一:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在網路上看所有劇情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案二:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能看前面幾章，剩下的要買實體書????</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -245,13 +393,46 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -348,12 +529,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -382,6 +560,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -397,6 +653,938 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>196811</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="13856" t="17317" r="56141" b="8878"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="685800"/>
+          <a:ext cx="2292311" cy="3171826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>573496</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="43756" t="18613" r="30408" b="8878"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="647700"/>
+          <a:ext cx="2021296" cy="3190876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047875" y="781050"/>
+          <a:ext cx="866775" cy="2038350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:tint val="66000"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent1">
+                <a:tint val="44500"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:tint val="23500"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4581524" y="781049"/>
+          <a:ext cx="790575" cy="2162175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:tint val="66000"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent1">
+                <a:tint val="44500"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:tint val="23500"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>52389</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>604839</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="向下箭號 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="6253164" y="547687"/>
+          <a:ext cx="2333625" cy="2390775"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="向右箭號 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16716375" y="4743450"/>
+          <a:ext cx="0" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>400052</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>933454</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="向下箭號 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="19506770" y="5546579"/>
+          <a:ext cx="385330" cy="533402"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>581027</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="向下箭號 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="8353425" y="5600700"/>
+          <a:ext cx="381001" cy="533402"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線單箭頭接點 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12725400" y="628650"/>
+          <a:ext cx="9525" cy="5295900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>214314</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>102609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>126422</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="向下箭號 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="13129348" y="8558212"/>
+          <a:ext cx="1686358" cy="1504515"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線單箭頭接點 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12725400" y="628650"/>
+          <a:ext cx="9525" cy="5295900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="向下箭號 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="6305550" y="8343900"/>
+          <a:ext cx="2333625" cy="2390775"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>695</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>127247</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="圖片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="13856" t="17317" r="56141" b="8878"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8763001" y="7773095"/>
+          <a:ext cx="1000124" cy="1383852"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1038225</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="矩形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9324975" y="8010525"/>
+          <a:ext cx="409575" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:tint val="66000"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent1">
+                <a:tint val="44500"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:tint val="23500"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="向右箭號 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19175557" y="4713143"/>
+          <a:ext cx="0" cy="284018"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>400052</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>933454</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="向下箭號 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="19506770" y="5546579"/>
+          <a:ext cx="385330" cy="533402"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>581027</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="向下箭號 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="15208827" y="5568661"/>
+          <a:ext cx="379269" cy="533402"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -695,7 +1883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE7012E-3C4C-4BDF-A113-0F00B5D6A1F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -750,7 +1938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE162B14-D6AF-4E26-ADD6-80F63FBC17A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -798,609 +1986,609 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1409,12 +2597,12 @@
     <mergeCell ref="A43:I47"/>
     <mergeCell ref="A48:I52"/>
     <mergeCell ref="A53:I55"/>
+    <mergeCell ref="A28:I32"/>
     <mergeCell ref="A3:I7"/>
     <mergeCell ref="A8:I12"/>
     <mergeCell ref="A13:I17"/>
     <mergeCell ref="A18:I22"/>
     <mergeCell ref="A23:I27"/>
-    <mergeCell ref="A28:I32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1422,10 +2610,1010 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6805ABE2-2C2B-4CF0-9BB0-C64BC09034D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="15.125" customWidth="1"/>
+    <col min="13" max="16" width="13.875" customWidth="1"/>
+    <col min="20" max="23" width="17.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="T1" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+    </row>
+    <row r="2" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="25"/>
+      <c r="N2" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="31"/>
+      <c r="P2" s="26"/>
+      <c r="R2" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="19"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="5"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="29"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="22"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="5"/>
+      <c r="M4" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="29"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="22"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="5"/>
+      <c r="M5" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="29"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="22"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="5"/>
+      <c r="M6" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="29"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="22"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="5"/>
+      <c r="M7" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="29"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="22"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="5"/>
+      <c r="M8" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="29"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="22"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="5"/>
+      <c r="M9" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="29"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="22"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="5"/>
+      <c r="M10" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="29"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="22"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="5"/>
+      <c r="M11" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="29"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="22"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="5"/>
+      <c r="M12" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="29"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="22"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="5"/>
+      <c r="M13" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="29"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="22"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="5"/>
+      <c r="M14" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="29"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="22"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="5"/>
+      <c r="M15" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="29"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="22"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="5"/>
+      <c r="M16" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="29"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="22"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="5"/>
+      <c r="M17" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="29"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="22"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="5"/>
+      <c r="M18" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="29"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="22"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="5"/>
+      <c r="M19" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="29"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="22"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="5"/>
+      <c r="M20" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="29"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="22"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="5"/>
+      <c r="M21" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="29"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="22"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="5"/>
+      <c r="M22" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="29"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="22"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="5"/>
+      <c r="M23" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="29"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="22"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="5"/>
+      <c r="M24" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="29"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="22"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="5"/>
+      <c r="M25" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="29"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="22"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="5"/>
+      <c r="M26" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="29"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="22"/>
+    </row>
+    <row r="27" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="9"/>
+      <c r="M27" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="29"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="22"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M28" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="6"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="V28" s="13"/>
+      <c r="W28" s="6"/>
+    </row>
+    <row r="29" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M29" s="7"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="9"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="V29" s="14"/>
+      <c r="W29" s="9"/>
+    </row>
+    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="J34" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+    </row>
+    <row r="35" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="K35" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="T35" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23"/>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+      <c r="M36" s="25"/>
+      <c r="N36" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="O36" s="31"/>
+      <c r="P36" s="26"/>
+      <c r="T36" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="U36" s="18"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="19"/>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="M37" s="27"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="29"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="22"/>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="29"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="22"/>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="N39" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="O39" s="35"/>
+      <c r="P39" s="29"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="22"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="29"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="22"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="M41" s="27"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="29"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="22"/>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="M42" s="27"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="29"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="22"/>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="M43" s="27"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="29"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="22"/>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="M44" s="27"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="29"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="22"/>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="M45" t="s">
+        <v>84</v>
+      </c>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="29"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="21"/>
+      <c r="V45" s="21"/>
+      <c r="W45" s="22"/>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="M46" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="29"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="21"/>
+      <c r="W46" s="22"/>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="M47" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="29"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="21"/>
+      <c r="W47" s="22"/>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="M48" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="29"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="21"/>
+      <c r="V48" s="21"/>
+      <c r="W48" s="22"/>
+    </row>
+    <row r="49" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M49" s="27"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="29"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="21"/>
+      <c r="W49" s="22"/>
+    </row>
+    <row r="50" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M50" s="27"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="29"/>
+      <c r="T50" s="20"/>
+      <c r="U50" s="21"/>
+      <c r="V50" s="21"/>
+      <c r="W50" s="22"/>
+    </row>
+    <row r="51" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M51" s="27"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="29"/>
+      <c r="T51" s="20"/>
+      <c r="U51" s="21"/>
+      <c r="V51" s="21"/>
+      <c r="W51" s="22"/>
+    </row>
+    <row r="52" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M52" s="27"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="28"/>
+      <c r="P52" s="29"/>
+      <c r="T52" s="20"/>
+      <c r="U52" s="21"/>
+      <c r="V52" s="21"/>
+      <c r="W52" s="22"/>
+    </row>
+    <row r="53" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M53" s="27"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="29"/>
+      <c r="T53" s="20"/>
+      <c r="U53" s="21"/>
+      <c r="V53" s="21"/>
+      <c r="W53" s="22"/>
+    </row>
+    <row r="54" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M54" s="27"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="29"/>
+      <c r="T54" s="20"/>
+      <c r="U54" s="21"/>
+      <c r="V54" s="21"/>
+      <c r="W54" s="22"/>
+    </row>
+    <row r="55" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M55" s="27"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="29"/>
+      <c r="T55" s="20"/>
+      <c r="U55" s="21"/>
+      <c r="V55" s="21"/>
+      <c r="W55" s="22"/>
+    </row>
+    <row r="56" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M56" s="27"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
+      <c r="P56" s="29"/>
+      <c r="T56" s="20"/>
+      <c r="U56" s="21"/>
+      <c r="V56" s="21"/>
+      <c r="W56" s="22"/>
+    </row>
+    <row r="57" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M57" s="27"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="28"/>
+      <c r="P57" s="29"/>
+      <c r="T57" s="20"/>
+      <c r="U57" s="21"/>
+      <c r="V57" s="21"/>
+      <c r="W57" s="22"/>
+    </row>
+    <row r="58" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M58" s="27"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="28"/>
+      <c r="P58" s="29"/>
+      <c r="T58" s="20"/>
+      <c r="U58" s="21"/>
+      <c r="V58" s="21"/>
+      <c r="W58" s="22"/>
+    </row>
+    <row r="59" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M59" s="27"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="28"/>
+      <c r="P59" s="29"/>
+      <c r="T59" s="20"/>
+      <c r="U59" s="21"/>
+      <c r="V59" s="21"/>
+      <c r="W59" s="22"/>
+    </row>
+    <row r="60" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M60" s="27"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="28"/>
+      <c r="P60" s="29"/>
+      <c r="T60" s="20"/>
+      <c r="U60" s="21"/>
+      <c r="V60" s="21"/>
+      <c r="W60" s="22"/>
+    </row>
+    <row r="61" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M61" s="27"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="28"/>
+      <c r="P61" s="29"/>
+      <c r="T61" s="20"/>
+      <c r="U61" s="21"/>
+      <c r="V61" s="21"/>
+      <c r="W61" s="22"/>
+    </row>
+    <row r="62" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M62" s="27"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="6"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="V62" s="13"/>
+      <c r="W62" s="6"/>
+    </row>
+    <row r="63" spans="13:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M63" s="7"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="9"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="V63" s="14"/>
+      <c r="W63" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="U62:V62"/>
+    <mergeCell ref="U63:V63"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N39:O42"/>
+    <mergeCell ref="T35:W35"/>
+    <mergeCell ref="T36:W61"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="T2:W27"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C1:G2"/>
+    <mergeCell ref="J1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="AW10" sqref="AW10"/>
     </sheetView>
   </sheetViews>
@@ -1614,682 +3802,682 @@
       </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="K6" s="1" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="K6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="U6" s="1" t="s">
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="U6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AE6" s="1" t="s">
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AE6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="12"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="1"/>
-      <c r="AM8" s="1"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="1"/>
-      <c r="AM9" s="1"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="12"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
-      <c r="AM10" s="1"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="12"/>
+      <c r="AI10" s="12"/>
+      <c r="AJ10" s="12"/>
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="12"/>
+      <c r="AM10" s="12"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="4"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="3"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="7"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="6"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="K18" s="5" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="K18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6" t="s">
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="7" t="s">
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="7"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="6"/>
     </row>
     <row r="20" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="10"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="9"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="4"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="3"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="6" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M22" s="6" t="s">
+      <c r="M22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N22" s="6" t="s">
+      <c r="N22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O22" s="6" t="s">
+      <c r="O22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="P22" s="6" t="s">
+      <c r="P22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Q22" s="6" t="s">
+      <c r="Q22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="R22" s="6" t="s">
+      <c r="R22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S22" s="7"/>
+      <c r="S22" s="6"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="6" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M23" s="6" t="s">
+      <c r="M23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="N23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O23" s="6" t="s">
+      <c r="O23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="P23" s="6" t="s">
+      <c r="P23" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="Q23" s="6" t="s">
+      <c r="Q23" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="R23" s="6" t="s">
+      <c r="R23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S23" s="7"/>
+      <c r="S23" s="6"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="6" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M24" s="6" t="s">
+      <c r="M24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="N24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O24" s="6" t="s">
+      <c r="O24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="P24" s="6" t="s">
+      <c r="P24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Q24" s="6" t="s">
+      <c r="Q24" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="R24" s="6" t="s">
+      <c r="R24" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="S24" s="7"/>
+      <c r="S24" s="6"/>
     </row>
     <row r="25" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="10"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="9"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="10">
